--- a/excelTemplate/LogisticsFreightInvoice.xlsx
+++ b/excelTemplate/LogisticsFreightInvoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -160,6 +160,21 @@
   <si>
     <t>&lt;%=rs1.shipment_list_invoice_customer%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCHARGE DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
   </si>
 </sst>
 </file>
@@ -269,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,9 +299,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,11 +591,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -601,10 +611,11 @@
     <col min="15" max="15" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="1"/>
+    <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,82 +643,88 @@
       <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -719,11 +736,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -745,11 +760,10 @@
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.125" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.75" style="2"/>
+    <col min="19" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -777,87 +791,89 @@
       <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="5"/>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="R2" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excelTemplate/LogisticsFreightInvoice.xlsx
+++ b/excelTemplate/LogisticsFreightInvoice.xlsx
@@ -15,12 +15,12 @@
     <sheet name="TBL付费跟踪表出口" sheetId="1" r:id="rId1"/>
     <sheet name="TBL付费跟踪表进口" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -64,14 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GATA OUT DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOADING DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.shipment_list_out_date%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,6 +167,55 @@
   </si>
   <si>
     <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_receivable_freight%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receivable
+Shipping Lines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREIGHT INVOICE No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREIGHT RECEIPT No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freight Payable(USD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freight Payable(TZS)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Margin(USD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_receivable_extra_tzs_receipt%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_freight_payable_usd%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_freight_payable_tzs%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_freight_invoice_no%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_freight_receipt_no%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -591,140 +632,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="1" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
+    <col min="19" max="22" width="16.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
+      <c r="T1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>38</v>
+      <c r="T2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="6" t="e">
+        <f>K2+N2+ROUND(Q2/2300,2)-T2-ROUND(U2/2300,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -736,147 +808,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="2"/>
+    <col min="1" max="3" width="23.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17" style="2" customWidth="1"/>
+    <col min="19" max="22" width="17.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.375" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="6" t="e">
+        <f>K2+N2+ROUND(Q2/2300,2)-T2-ROUND(U2/2300,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excelTemplate/LogisticsFreightInvoice.xlsx
+++ b/excelTemplate/LogisticsFreightInvoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -178,43 +178,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FREIGHT INVOICE No.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREIGHT RECEIPT No.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freight Payable(USD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freight Payable(TZS)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Margin(USD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.shipment_list_receivable_extra_tzs_receipt%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_freight_payable_usd%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_freight_payable_tzs%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_freight_invoice_no%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_freight_receipt_no%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,170 +596,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="24.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.25" style="1" customWidth="1"/>
-    <col min="19" max="22" width="16.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="L1" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="6" t="e">
-        <f>K2+N2+ROUND(Q2/2300,2)-T2-ROUND(U2/2300,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -808,173 +741,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="23.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17" style="2" customWidth="1"/>
-    <col min="19" max="22" width="17.125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="L1" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="6" t="e">
-        <f>K2+N2+ROUND(Q2/2300,2)-T2-ROUND(U2/2300,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W2" s="6" t="s">
         <v>36</v>
       </c>
     </row>

--- a/excelTemplate/LogisticsFreightInvoice.xlsx
+++ b/excelTemplate/LogisticsFreightInvoice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TBL付费跟踪表出口" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.shipment_list_receivable_extra_tzs_receipt%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_vendor_code%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENDOR CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +321,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,9 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -608,19 +621,20 @@
     <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -648,35 +662,38 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -704,31 +721,34 @@
       <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -741,9 +761,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -756,19 +776,20 @@
     <col min="7" max="7" width="18.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="2"/>
+    <col min="10" max="10" width="31.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -796,35 +817,38 @@
       <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -852,31 +876,34 @@
       <c r="I2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
